--- a/[B3]Echipa3/Raport.xlsx
+++ b/[B3]Echipa3/Raport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Nr. Crt.</t>
   </si>
@@ -321,14 +321,44 @@
     <t>5) Future planning</t>
   </si>
   <si>
-    <t>For the next week we plan to start the implementation of the module and to assing tasks to each member. (Week 3)</t>
+    <t>At the end of the week we had another meeting regarding the implementation of the module and we discussed and</t>
+  </si>
+  <si>
+    <t>debated the modifications that we talked about with the client. After we all agreed on the details we started to implement</t>
+  </si>
+  <si>
+    <t>the classes and functions for each of our assigned cases.</t>
+  </si>
+  <si>
+    <t>The hour of truth finally came and we had to present our progress to the client. He was satisfied with the work that</t>
+  </si>
+  <si>
+    <t>we had done and requested a few changes to some of our ideas. We listened, wrote down and analized his proposal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We sugested that the decision should be made next week after we had done some research and documentation and </t>
+  </si>
+  <si>
+    <t>the client agreed upon.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>For the next week we plan to continue with the implementation of the module and make the basic functions for scanning. (Week 4)</t>
+  </si>
+  <si>
+    <t>Each one of us created a basic prototype of the classes which he had to implement. We reviewed them and corrected</t>
+  </si>
+  <si>
+    <t>any mistake that might have slipped through.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,13 +394,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -397,6 +420,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -416,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -605,22 +644,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -665,14 +695,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -979,7 +1012,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1129,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1135,7 +1168,9 @@
         <v>23</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1174,7 +1209,9 @@
         <v>23</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1213,7 +1250,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1252,7 +1289,9 @@
         <v>23</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1291,7 +1330,9 @@
         <v>23</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1330,7 +1371,9 @@
         <v>40</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -1351,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K94"/>
+  <dimension ref="B1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,10 +1557,10 @@
       </c>
     </row>
     <row r="56" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="35"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="58" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C58" s="32" t="s">
@@ -1555,10 +1598,10 @@
       </c>
     </row>
     <row r="68" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="35"/>
+      <c r="D68" s="38"/>
     </row>
     <row r="70" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C70" s="32" t="s">
@@ -1605,45 +1648,108 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D81" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D82" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D83" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C86" s="34" t="s">
+    <row r="86" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C86" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="35"/>
-    </row>
-    <row r="88" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D86" s="38"/>
+    </row>
+    <row r="88" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C88" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C89" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B92" s="28" t="s">
+    <row r="90" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C90" s="32"/>
+    </row>
+    <row r="91" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C91" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C92" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C93" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C94" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C96" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C97" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C98" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C99" s="32"/>
+    </row>
+    <row r="100" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C100" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="35"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="36"/>
+      <c r="D101" s="35"/>
+    </row>
+    <row r="102" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C102" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="35"/>
+    </row>
+    <row r="103" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C103" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="35"/>
+    </row>
+    <row r="105" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B105" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C94" s="32" t="s">
-        <v>95</v>
+    <row r="107" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C107" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/[B3]Echipa3/Raport.xlsx
+++ b/[B3]Echipa3/Raport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="RaportActivitate" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Nr. Crt.</t>
   </si>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,8 +1128,12 @@
       <c r="H2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1167,7 +1171,9 @@
       <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1214,9 @@
       <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1249,8 +1257,12 @@
       <c r="H5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1288,7 +1300,9 @@
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1343,9 @@
       <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1386,9 @@
       <c r="H8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
